--- a/data/case1/5/P1_11.xlsx
+++ b/data/case1/5/P1_11.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.14421212747976142</v>
+        <v>0.14190561823988901</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.009999999785318181</v>
+        <v>-0.0099999995557880084</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999997869423254</v>
+        <v>-0.0089999995590375192</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.20999999942920411</v>
+        <v>0.2099999988260528</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999997933806171</v>
+        <v>-0.0059999995725039668</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999997869510935</v>
+        <v>-0.0059999995593749134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.01999999974786526</v>
+        <v>-0.019999999478937269</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999745879293</v>
+        <v>-0.019999999474844543</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.005999999782030585</v>
+        <v>-0.0059999995491963887</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999997801796212</v>
+        <v>-0.0059999995454873556</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999997840626804</v>
+        <v>-0.0044999995536372239</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999997796720272</v>
+        <v>-0.005999999544503698</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999997783233283</v>
+        <v>-0.0059999995417738816</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999761612479</v>
+        <v>-0.01199999950742292</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999997779902614</v>
+        <v>-0.0059999995411716966</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.020787480848379669</v>
+        <v>0.022139183819991803</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999997771873481</v>
+        <v>-0.0059999995395720873</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.008999999768765754</v>
+        <v>-0.0089999995222473927</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999997875764848</v>
+        <v>-0.008999999560305838</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.008999999781205581</v>
+        <v>-0.0089999995474130401</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.061377924682949114</v>
+        <v>-0.06045756216584941</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999997797516329</v>
+        <v>-0.0089999995444247638</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.008999999785123336</v>
+        <v>-0.0089999995553098344</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.04199999969122814</v>
+        <v>-0.041999999362071883</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999689620537</v>
+        <v>-0.041999999358712792</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999997868906974</v>
+        <v>-0.0059999995593003064</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999997862938415</v>
+        <v>-0.0059999995581252463</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999997840298747</v>
+        <v>-0.0059999995533503991</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999766171499</v>
+        <v>-0.011999999516561388</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.01999999974373079</v>
+        <v>-0.019999999470372565</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999757247195</v>
+        <v>-0.014999999498169103</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.017294240362090818</v>
+        <v>0.017188378254716419</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999997819710771</v>
+        <v>-0.00599999954907382</v>
       </c>
     </row>
   </sheetData>
